--- a/Documentatie/Taken verdeling/UrenVerantwoording.xlsx
+++ b/Documentatie/Taken verdeling/UrenVerantwoording.xlsx
@@ -1,25 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Taken verdeling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9DB7F-44F1-47A4-B40F-4C11109F465B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Ammaar</t>
+  </si>
+  <si>
+    <t>Perijn</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Dinsdag</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +115,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +158,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40440AA-11DF-4A08-95B5-A012C05D88A7}" name="Table1" displayName="Table1" ref="A3:E10" totalsRowShown="0">
+  <autoFilter ref="A3:E10" xr:uid="{E40440AA-11DF-4A08-95B5-A012C05D88A7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F1EE2D0B-626E-438D-AB18-92D7065847A4}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{197D1E8C-6394-4620-8A39-D188E94D585F}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{724A21D9-587E-4835-94E1-AABF6C7852C1}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{1550EC20-5505-4160-8FA0-6BDE333C568B}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{EB4BD57C-9899-4C77-8170-F87650DB4F6B}" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +436,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="5" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <f xml:space="preserve"> SUM(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:E10" si="0" xml:space="preserve"> SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>